--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>441.730738205148</v>
+        <v>442.844055</v>
       </c>
       <c r="H2">
-        <v>441.730738205148</v>
+        <v>885.6881100000001</v>
       </c>
       <c r="I2">
-        <v>0.6021619549662824</v>
+        <v>0.5956080271087346</v>
       </c>
       <c r="J2">
-        <v>0.6021619549662824</v>
+        <v>0.496306158069548</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.7361484463294</v>
+        <v>49.0568845</v>
       </c>
       <c r="N2">
-        <v>48.7361484463294</v>
+        <v>98.11376899999999</v>
       </c>
       <c r="O2">
-        <v>0.4289149076182761</v>
+        <v>0.4077625596939557</v>
       </c>
       <c r="P2">
-        <v>0.4289149076182761</v>
+        <v>0.3147224240097881</v>
       </c>
       <c r="Q2">
-        <v>21528.25483047276</v>
+        <v>21724.54965764665</v>
       </c>
       <c r="R2">
-        <v>21528.25483047276</v>
+        <v>86898.19863058659</v>
       </c>
       <c r="S2">
-        <v>0.2582762392856036</v>
+        <v>0.2428666537081246</v>
       </c>
       <c r="T2">
-        <v>0.2582762392856036</v>
+        <v>0.1561986771186332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>441.730738205148</v>
+        <v>442.844055</v>
       </c>
       <c r="H3">
-        <v>441.730738205148</v>
+        <v>885.6881100000001</v>
       </c>
       <c r="I3">
-        <v>0.6021619549662824</v>
+        <v>0.5956080271087346</v>
       </c>
       <c r="J3">
-        <v>0.6021619549662824</v>
+        <v>0.496306158069548</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.465334482762813</v>
+        <v>0.5447046666666667</v>
       </c>
       <c r="N3">
-        <v>0.465334482762813</v>
+        <v>1.634114</v>
       </c>
       <c r="O3">
-        <v>0.004095294828347118</v>
+        <v>0.004527604462065725</v>
       </c>
       <c r="P3">
-        <v>0.004095294828347118</v>
+        <v>0.005241795564782868</v>
       </c>
       <c r="Q3">
-        <v>205.5525445831281</v>
+        <v>241.21922336409</v>
       </c>
       <c r="R3">
-        <v>205.5525445831281</v>
+        <v>1447.31534018454</v>
       </c>
       <c r="S3">
-        <v>0.002466030740000806</v>
+        <v>0.00269667756117967</v>
       </c>
       <c r="T3">
-        <v>0.002466030740000806</v>
+        <v>0.002601535418143381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>441.730738205148</v>
+        <v>442.844055</v>
       </c>
       <c r="H4">
-        <v>441.730738205148</v>
+        <v>885.6881100000001</v>
       </c>
       <c r="I4">
-        <v>0.6021619549662824</v>
+        <v>0.5956080271087346</v>
       </c>
       <c r="J4">
-        <v>0.6021619549662824</v>
+        <v>0.496306158069548</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.208644227523459</v>
+        <v>12.26689866666667</v>
       </c>
       <c r="N4">
-        <v>9.208644227523459</v>
+        <v>36.800696</v>
       </c>
       <c r="O4">
-        <v>0.08104302276753411</v>
+        <v>0.101962895744559</v>
       </c>
       <c r="P4">
-        <v>0.08104302276753411</v>
+        <v>0.1180466754912586</v>
       </c>
       <c r="Q4">
-        <v>4067.741212492512</v>
+        <v>5432.323147820761</v>
       </c>
       <c r="R4">
-        <v>4067.741212492512</v>
+        <v>32593.93888692456</v>
       </c>
       <c r="S4">
-        <v>0.04880102502607528</v>
+        <v>0.06072991917271038</v>
       </c>
       <c r="T4">
-        <v>0.04880102502607528</v>
+        <v>0.05858729198594925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>441.730738205148</v>
+        <v>442.844055</v>
       </c>
       <c r="H5">
-        <v>441.730738205148</v>
+        <v>885.6881100000001</v>
       </c>
       <c r="I5">
-        <v>0.6021619549662824</v>
+        <v>0.5956080271087346</v>
       </c>
       <c r="J5">
-        <v>0.6021619549662824</v>
+        <v>0.496306158069548</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.4504432715485</v>
+        <v>22.19572933333333</v>
       </c>
       <c r="N5">
-        <v>20.4504432715485</v>
+        <v>66.587188</v>
       </c>
       <c r="O5">
-        <v>0.1799793431815528</v>
+        <v>0.1844916875476309</v>
       </c>
       <c r="P5">
-        <v>0.1799793431815528</v>
+        <v>0.2135936824051217</v>
       </c>
       <c r="Q5">
-        <v>9033.58940296362</v>
+        <v>9829.24678165578</v>
       </c>
       <c r="R5">
-        <v>9033.58940296362</v>
+        <v>58975.48068993468</v>
       </c>
       <c r="S5">
-        <v>0.1083767131437513</v>
+        <v>0.1098847300382055</v>
       </c>
       <c r="T5">
-        <v>0.1083767131437513</v>
+        <v>0.1060078599024131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,57 +785,57 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>441.730738205148</v>
+        <v>442.844055</v>
       </c>
       <c r="H6">
-        <v>441.730738205148</v>
+        <v>885.6881100000001</v>
       </c>
       <c r="I6">
-        <v>0.6021619549662824</v>
+        <v>0.5956080271087346</v>
       </c>
       <c r="J6">
-        <v>0.6021619549662824</v>
+        <v>0.496306158069548</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.7660431044748</v>
+        <v>36.12470666666667</v>
       </c>
       <c r="N6">
-        <v>34.7660431044748</v>
+        <v>108.37412</v>
       </c>
       <c r="O6">
-        <v>0.3059674316042899</v>
+        <v>0.3002698399771658</v>
       </c>
       <c r="P6">
-        <v>0.3059674316042899</v>
+        <v>0.347634853843273</v>
       </c>
       <c r="Q6">
-        <v>15357.22988501165</v>
+        <v>15997.6115859522</v>
       </c>
       <c r="R6">
-        <v>15357.22988501165</v>
+        <v>95985.66951571321</v>
       </c>
       <c r="S6">
-        <v>0.1842419467708515</v>
+        <v>0.1788431269890552</v>
       </c>
       <c r="T6">
-        <v>0.1842419467708515</v>
+        <v>0.1725333187220237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.31137811559942</v>
+        <v>442.844055</v>
       </c>
       <c r="H7">
-        <v>2.31137811559942</v>
+        <v>885.6881100000001</v>
       </c>
       <c r="I7">
-        <v>0.003150842457581568</v>
+        <v>0.5956080271087346</v>
       </c>
       <c r="J7">
-        <v>0.003150842457581568</v>
+        <v>0.496306158069548</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>48.7361484463294</v>
+        <v>0.1185525</v>
       </c>
       <c r="N7">
-        <v>48.7361484463294</v>
+        <v>0.237105</v>
       </c>
       <c r="O7">
-        <v>0.4289149076182761</v>
+        <v>0.0009854125746227868</v>
       </c>
       <c r="P7">
-        <v>0.4289149076182761</v>
+        <v>0.0007605686857758039</v>
       </c>
       <c r="Q7">
-        <v>112.6476669574505</v>
+        <v>52.5002698303875</v>
       </c>
       <c r="R7">
-        <v>112.6476669574505</v>
+        <v>210.00107932155</v>
       </c>
       <c r="S7">
-        <v>0.00135144330161334</v>
+        <v>0.0005869196394592168</v>
       </c>
       <c r="T7">
-        <v>0.00135144330161334</v>
+        <v>0.0003774749223853945</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.31137811559942</v>
+        <v>2.568168333333333</v>
       </c>
       <c r="H8">
-        <v>2.31137811559942</v>
+        <v>7.704505</v>
       </c>
       <c r="I8">
-        <v>0.003150842457581568</v>
+        <v>0.003454086505236688</v>
       </c>
       <c r="J8">
-        <v>0.003150842457581568</v>
+        <v>0.004317313547742695</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.465334482762813</v>
+        <v>49.0568845</v>
       </c>
       <c r="N8">
-        <v>0.465334482762813</v>
+        <v>98.11376899999999</v>
       </c>
       <c r="O8">
-        <v>0.004095294828347118</v>
+        <v>0.4077625596939557</v>
       </c>
       <c r="P8">
-        <v>0.004095294828347118</v>
+        <v>0.3147224240097881</v>
       </c>
       <c r="Q8">
-        <v>1.075563939891742</v>
+        <v>125.9863373048908</v>
       </c>
       <c r="R8">
-        <v>1.075563939891742</v>
+        <v>755.918023829345</v>
       </c>
       <c r="S8">
-        <v>1.290362882147032E-05</v>
+        <v>0.001408447154779662</v>
       </c>
       <c r="T8">
-        <v>1.290362882147032E-05</v>
+        <v>0.001358755384955879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.31137811559942</v>
+        <v>2.568168333333333</v>
       </c>
       <c r="H9">
-        <v>2.31137811559942</v>
+        <v>7.704505</v>
       </c>
       <c r="I9">
-        <v>0.003150842457581568</v>
+        <v>0.003454086505236688</v>
       </c>
       <c r="J9">
-        <v>0.003150842457581568</v>
+        <v>0.004317313547742695</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.208644227523459</v>
+        <v>0.5447046666666667</v>
       </c>
       <c r="N9">
-        <v>9.208644227523459</v>
+        <v>1.634114</v>
       </c>
       <c r="O9">
-        <v>0.08104302276753411</v>
+        <v>0.004527604462065725</v>
       </c>
       <c r="P9">
-        <v>0.08104302276753411</v>
+        <v>0.005241795564782868</v>
       </c>
       <c r="Q9">
-        <v>21.28465874183865</v>
+        <v>1.398893275952222</v>
       </c>
       <c r="R9">
-        <v>21.28465874183865</v>
+        <v>12.59003948357</v>
       </c>
       <c r="S9">
-        <v>0.0002553537970266962</v>
+        <v>1.563873747347064E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002553537970266962</v>
+        <v>2.263047500633465E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.31137811559942</v>
+        <v>2.568168333333333</v>
       </c>
       <c r="H10">
-        <v>2.31137811559942</v>
+        <v>7.704505</v>
       </c>
       <c r="I10">
-        <v>0.003150842457581568</v>
+        <v>0.003454086505236688</v>
       </c>
       <c r="J10">
-        <v>0.003150842457581568</v>
+        <v>0.004317313547742695</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.4504432715485</v>
+        <v>12.26689866666667</v>
       </c>
       <c r="N10">
-        <v>20.4504432715485</v>
+        <v>36.800696</v>
       </c>
       <c r="O10">
-        <v>0.1799793431815528</v>
+        <v>0.101962895744559</v>
       </c>
       <c r="P10">
-        <v>0.1799793431815528</v>
+        <v>0.1180466754912586</v>
       </c>
       <c r="Q10">
-        <v>47.26870703216461</v>
+        <v>31.50346070394223</v>
       </c>
       <c r="R10">
-        <v>47.26870703216461</v>
+        <v>283.53114633548</v>
       </c>
       <c r="S10">
-        <v>0.0005670865559840803</v>
+        <v>0.0003521886622261366</v>
       </c>
       <c r="T10">
-        <v>0.0005670865559840803</v>
+        <v>0.0005096445113643964</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.31137811559942</v>
+        <v>2.568168333333333</v>
       </c>
       <c r="H11">
-        <v>2.31137811559942</v>
+        <v>7.704505</v>
       </c>
       <c r="I11">
-        <v>0.003150842457581568</v>
+        <v>0.003454086505236688</v>
       </c>
       <c r="J11">
-        <v>0.003150842457581568</v>
+        <v>0.004317313547742695</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.7660431044748</v>
+        <v>22.19572933333333</v>
       </c>
       <c r="N11">
-        <v>34.7660431044748</v>
+        <v>66.587188</v>
       </c>
       <c r="O11">
-        <v>0.3059674316042899</v>
+        <v>0.1844916875476309</v>
       </c>
       <c r="P11">
-        <v>0.3059674316042899</v>
+        <v>0.2135936824051217</v>
       </c>
       <c r="Q11">
-        <v>80.35747119766917</v>
+        <v>57.00236920910444</v>
       </c>
       <c r="R11">
-        <v>80.35747119766917</v>
+        <v>513.02132288194</v>
       </c>
       <c r="S11">
-        <v>0.0009640551741359811</v>
+        <v>0.0006372502482866155</v>
       </c>
       <c r="T11">
-        <v>0.0009640551741359811</v>
+        <v>0.0009221508987598822</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.66156959406423</v>
+        <v>2.568168333333333</v>
       </c>
       <c r="H12">
-        <v>3.66156959406423</v>
+        <v>7.704505</v>
       </c>
       <c r="I12">
-        <v>0.004991407014068459</v>
+        <v>0.003454086505236688</v>
       </c>
       <c r="J12">
-        <v>0.004991407014068459</v>
+        <v>0.004317313547742695</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.7361484463294</v>
+        <v>36.12470666666667</v>
       </c>
       <c r="N12">
-        <v>48.7361484463294</v>
+        <v>108.37412</v>
       </c>
       <c r="O12">
-        <v>0.4289149076182761</v>
+        <v>0.3002698399771658</v>
       </c>
       <c r="P12">
-        <v>0.4289149076182761</v>
+        <v>0.347634853843273</v>
       </c>
       <c r="Q12">
-        <v>178.4507992828804</v>
+        <v>92.77432771228889</v>
       </c>
       <c r="R12">
-        <v>178.4507992828804</v>
+        <v>834.9689494106001</v>
       </c>
       <c r="S12">
-        <v>0.002140888878324388</v>
+        <v>0.001037158002194708</v>
       </c>
       <c r="T12">
-        <v>0.002140888878324388</v>
+        <v>0.001500848664165114</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.66156959406423</v>
+        <v>2.568168333333333</v>
       </c>
       <c r="H13">
-        <v>3.66156959406423</v>
+        <v>7.704505</v>
       </c>
       <c r="I13">
-        <v>0.004991407014068459</v>
+        <v>0.003454086505236688</v>
       </c>
       <c r="J13">
-        <v>0.004991407014068459</v>
+        <v>0.004317313547742695</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.465334482762813</v>
+        <v>0.1185525</v>
       </c>
       <c r="N13">
-        <v>0.465334482762813</v>
+        <v>0.237105</v>
       </c>
       <c r="O13">
-        <v>0.004095294828347118</v>
+        <v>0.0009854125746227868</v>
       </c>
       <c r="P13">
-        <v>0.004095294828347118</v>
+        <v>0.0007605686857758039</v>
       </c>
       <c r="Q13">
-        <v>1.703854593153922</v>
+        <v>0.3044627763375</v>
       </c>
       <c r="R13">
-        <v>1.703854593153922</v>
+        <v>1.826776658025</v>
       </c>
       <c r="S13">
-        <v>2.044128333089009E-05</v>
+        <v>3.403700276095109E-06</v>
       </c>
       <c r="T13">
-        <v>2.044128333089009E-05</v>
+        <v>3.283613491088734E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.66156959406423</v>
+        <v>3.891101666666666</v>
       </c>
       <c r="H14">
-        <v>3.66156959406423</v>
+        <v>11.673305</v>
       </c>
       <c r="I14">
-        <v>0.004991407014068459</v>
+        <v>0.005233380375768717</v>
       </c>
       <c r="J14">
-        <v>0.004991407014068459</v>
+        <v>0.006541279137781407</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.208644227523459</v>
+        <v>49.0568845</v>
       </c>
       <c r="N14">
-        <v>9.208644227523459</v>
+        <v>98.11376899999999</v>
       </c>
       <c r="O14">
-        <v>0.08104302276753411</v>
+        <v>0.4077625596939557</v>
       </c>
       <c r="P14">
-        <v>0.08104302276753411</v>
+        <v>0.3147224240097881</v>
       </c>
       <c r="Q14">
-        <v>33.71809170605498</v>
+        <v>190.8853250394241</v>
       </c>
       <c r="R14">
-        <v>33.71809170605498</v>
+        <v>1145.311950236545</v>
       </c>
       <c r="S14">
-        <v>0.0004045187122831796</v>
+        <v>0.002133976577875568</v>
       </c>
       <c r="T14">
-        <v>0.0004045187122831796</v>
+        <v>0.002058687226367221</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.66156959406423</v>
+        <v>3.891101666666666</v>
       </c>
       <c r="H15">
-        <v>3.66156959406423</v>
+        <v>11.673305</v>
       </c>
       <c r="I15">
-        <v>0.004991407014068459</v>
+        <v>0.005233380375768717</v>
       </c>
       <c r="J15">
-        <v>0.004991407014068459</v>
+        <v>0.006541279137781407</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.4504432715485</v>
+        <v>0.5447046666666667</v>
       </c>
       <c r="N15">
-        <v>20.4504432715485</v>
+        <v>1.634114</v>
       </c>
       <c r="O15">
-        <v>0.1799793431815528</v>
+        <v>0.004527604462065725</v>
       </c>
       <c r="P15">
-        <v>0.1799793431815528</v>
+        <v>0.005241795564782868</v>
       </c>
       <c r="Q15">
-        <v>74.88072126823741</v>
+        <v>2.119501236307778</v>
       </c>
       <c r="R15">
-        <v>74.88072126823741</v>
+        <v>19.07551112677</v>
       </c>
       <c r="S15">
-        <v>0.000898350155943837</v>
+        <v>2.369467634101764E-05</v>
       </c>
       <c r="T15">
-        <v>0.000898350155943837</v>
+        <v>3.428804797242928E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.66156959406423</v>
+        <v>3.891101666666666</v>
       </c>
       <c r="H16">
-        <v>3.66156959406423</v>
+        <v>11.673305</v>
       </c>
       <c r="I16">
-        <v>0.004991407014068459</v>
+        <v>0.005233380375768717</v>
       </c>
       <c r="J16">
-        <v>0.004991407014068459</v>
+        <v>0.006541279137781407</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.7660431044748</v>
+        <v>12.26689866666667</v>
       </c>
       <c r="N16">
-        <v>34.7660431044748</v>
+        <v>36.800696</v>
       </c>
       <c r="O16">
-        <v>0.3059674316042899</v>
+        <v>0.101962895744559</v>
       </c>
       <c r="P16">
-        <v>0.3059674316042899</v>
+        <v>0.1180466754912586</v>
       </c>
       <c r="Q16">
-        <v>127.2982863372713</v>
+        <v>47.73174984669778</v>
       </c>
       <c r="R16">
-        <v>127.2982863372713</v>
+        <v>429.58574862028</v>
       </c>
       <c r="S16">
-        <v>0.001527207984186164</v>
+        <v>0.0005336106176461267</v>
       </c>
       <c r="T16">
-        <v>0.001527207984186164</v>
+        <v>0.0007721762556754219</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.65922479786539</v>
+        <v>3.891101666666666</v>
       </c>
       <c r="H17">
-        <v>5.65922479786539</v>
+        <v>11.673305</v>
       </c>
       <c r="I17">
-        <v>0.007714586224456166</v>
+        <v>0.005233380375768717</v>
       </c>
       <c r="J17">
-        <v>0.007714586224456166</v>
+        <v>0.006541279137781407</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>48.7361484463294</v>
+        <v>22.19572933333333</v>
       </c>
       <c r="N17">
-        <v>48.7361484463294</v>
+        <v>66.587188</v>
       </c>
       <c r="O17">
-        <v>0.4289149076182761</v>
+        <v>0.1844916875476309</v>
       </c>
       <c r="P17">
-        <v>0.4289149076182761</v>
+        <v>0.2135936824051217</v>
       </c>
       <c r="Q17">
-        <v>275.8088198399162</v>
+        <v>86.36583940181555</v>
       </c>
       <c r="R17">
-        <v>275.8088198399162</v>
+        <v>777.2925546163399</v>
       </c>
       <c r="S17">
-        <v>0.003308901037775841</v>
+        <v>0.0009655151771042253</v>
       </c>
       <c r="T17">
-        <v>0.003308901037775841</v>
+        <v>0.00139717589867853</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.65922479786539</v>
+        <v>3.891101666666666</v>
       </c>
       <c r="H18">
-        <v>5.65922479786539</v>
+        <v>11.673305</v>
       </c>
       <c r="I18">
-        <v>0.007714586224456166</v>
+        <v>0.005233380375768717</v>
       </c>
       <c r="J18">
-        <v>0.007714586224456166</v>
+        <v>0.006541279137781407</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.465334482762813</v>
+        <v>36.12470666666667</v>
       </c>
       <c r="N18">
-        <v>0.465334482762813</v>
+        <v>108.37412</v>
       </c>
       <c r="O18">
-        <v>0.004095294828347118</v>
+        <v>0.3002698399771658</v>
       </c>
       <c r="P18">
-        <v>0.004095294828347118</v>
+        <v>0.347634853843273</v>
       </c>
       <c r="Q18">
-        <v>2.633432444153176</v>
+        <v>140.5649063185111</v>
       </c>
       <c r="R18">
-        <v>2.633432444153176</v>
+        <v>1265.0841568666</v>
       </c>
       <c r="S18">
-        <v>3.159350506785326E-05</v>
+        <v>0.001571426287971713</v>
       </c>
       <c r="T18">
-        <v>3.159350506785326E-05</v>
+        <v>0.00227397661701069</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.65922479786539</v>
+        <v>3.891101666666666</v>
       </c>
       <c r="H19">
-        <v>5.65922479786539</v>
+        <v>11.673305</v>
       </c>
       <c r="I19">
-        <v>0.007714586224456166</v>
+        <v>0.005233380375768717</v>
       </c>
       <c r="J19">
-        <v>0.007714586224456166</v>
+        <v>0.006541279137781407</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>9.208644227523459</v>
+        <v>0.1185525</v>
       </c>
       <c r="N19">
-        <v>9.208644227523459</v>
+        <v>0.237105</v>
       </c>
       <c r="O19">
-        <v>0.08104302276753411</v>
+        <v>0.0009854125746227868</v>
       </c>
       <c r="P19">
-        <v>0.08104302276753411</v>
+        <v>0.0007605686857758039</v>
       </c>
       <c r="Q19">
-        <v>52.11378776712074</v>
+        <v>0.4612998303375</v>
       </c>
       <c r="R19">
-        <v>52.11378776712074</v>
+        <v>2.767798982025</v>
       </c>
       <c r="S19">
-        <v>0.0006252133870307061</v>
+        <v>5.157038830066619E-06</v>
       </c>
       <c r="T19">
-        <v>0.0006252133870307061</v>
+        <v>4.975092077115088E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.65922479786539</v>
+        <v>6.062445333333333</v>
       </c>
       <c r="H20">
-        <v>5.65922479786539</v>
+        <v>18.187336</v>
       </c>
       <c r="I20">
-        <v>0.007714586224456166</v>
+        <v>0.008153753141026635</v>
       </c>
       <c r="J20">
-        <v>0.007714586224456166</v>
+        <v>0.01019149602864148</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.4504432715485</v>
+        <v>49.0568845</v>
       </c>
       <c r="N20">
-        <v>20.4504432715485</v>
+        <v>98.11376899999999</v>
       </c>
       <c r="O20">
-        <v>0.1799793431815528</v>
+        <v>0.4077625596939557</v>
       </c>
       <c r="P20">
-        <v>0.1799793431815528</v>
+        <v>0.3147224240097881</v>
       </c>
       <c r="Q20">
-        <v>115.7336556896867</v>
+        <v>297.4046805048973</v>
       </c>
       <c r="R20">
-        <v>115.7336556896867</v>
+        <v>1784.428083029384</v>
       </c>
       <c r="S20">
-        <v>0.001388466161595076</v>
+        <v>0.003324795251897652</v>
       </c>
       <c r="T20">
-        <v>0.001388466161595076</v>
+        <v>0.003207492334420175</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.65922479786539</v>
+        <v>6.062445333333333</v>
       </c>
       <c r="H21">
-        <v>5.65922479786539</v>
+        <v>18.187336</v>
       </c>
       <c r="I21">
-        <v>0.007714586224456166</v>
+        <v>0.008153753141026635</v>
       </c>
       <c r="J21">
-        <v>0.007714586224456166</v>
+        <v>0.01019149602864148</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.7660431044748</v>
+        <v>0.5447046666666667</v>
       </c>
       <c r="N21">
-        <v>34.7660431044748</v>
+        <v>1.634114</v>
       </c>
       <c r="O21">
-        <v>0.3059674316042899</v>
+        <v>0.004527604462065725</v>
       </c>
       <c r="P21">
-        <v>0.3059674316042899</v>
+        <v>0.005241795564782868</v>
       </c>
       <c r="Q21">
-        <v>196.7488532605008</v>
+        <v>3.302242264478222</v>
       </c>
       <c r="R21">
-        <v>196.7488532605008</v>
+        <v>29.720180380304</v>
       </c>
       <c r="S21">
-        <v>0.002360412132986689</v>
+        <v>3.691696910389462E-05</v>
       </c>
       <c r="T21">
-        <v>0.002360412132986689</v>
+        <v>5.342173868143513E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>277.090667423713</v>
+        <v>6.062445333333333</v>
       </c>
       <c r="H22">
-        <v>277.090667423713</v>
+        <v>18.187336</v>
       </c>
       <c r="I22">
-        <v>0.3777266184299023</v>
+        <v>0.008153753141026635</v>
       </c>
       <c r="J22">
-        <v>0.3777266184299023</v>
+        <v>0.01019149602864148</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>48.7361484463294</v>
+        <v>12.26689866666667</v>
       </c>
       <c r="N22">
-        <v>48.7361484463294</v>
+        <v>36.800696</v>
       </c>
       <c r="O22">
-        <v>0.4289149076182761</v>
+        <v>0.101962895744559</v>
       </c>
       <c r="P22">
-        <v>0.4289149076182761</v>
+        <v>0.1180466754912586</v>
       </c>
       <c r="Q22">
-        <v>13504.33190065457</v>
+        <v>74.36740257620622</v>
       </c>
       <c r="R22">
-        <v>13504.33190065457</v>
+        <v>669.306623185856</v>
       </c>
       <c r="S22">
-        <v>0.1620125776488254</v>
+        <v>0.0008313802814453693</v>
       </c>
       <c r="T22">
-        <v>0.1620125776488254</v>
+        <v>0.001203072224463492</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>277.090667423713</v>
+        <v>6.062445333333333</v>
       </c>
       <c r="H23">
-        <v>277.090667423713</v>
+        <v>18.187336</v>
       </c>
       <c r="I23">
-        <v>0.3777266184299023</v>
+        <v>0.008153753141026635</v>
       </c>
       <c r="J23">
-        <v>0.3777266184299023</v>
+        <v>0.01019149602864148</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.465334482762813</v>
+        <v>22.19572933333333</v>
       </c>
       <c r="N23">
-        <v>0.465334482762813</v>
+        <v>66.587188</v>
       </c>
       <c r="O23">
-        <v>0.004095294828347118</v>
+        <v>0.1844916875476309</v>
       </c>
       <c r="P23">
-        <v>0.004095294828347118</v>
+        <v>0.2135936824051217</v>
       </c>
       <c r="Q23">
-        <v>128.9398424040161</v>
+        <v>134.5603957167964</v>
       </c>
       <c r="R23">
-        <v>128.9398424040161</v>
+        <v>1211.043561451168</v>
       </c>
       <c r="S23">
-        <v>0.001546901866985024</v>
+        <v>0.0015042996768348</v>
       </c>
       <c r="T23">
-        <v>0.001546901866985024</v>
+        <v>0.002176839165974707</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>277.090667423713</v>
+        <v>6.062445333333333</v>
       </c>
       <c r="H24">
-        <v>277.090667423713</v>
+        <v>18.187336</v>
       </c>
       <c r="I24">
-        <v>0.3777266184299023</v>
+        <v>0.008153753141026635</v>
       </c>
       <c r="J24">
-        <v>0.3777266184299023</v>
+        <v>0.01019149602864148</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.208644227523459</v>
+        <v>36.12470666666667</v>
       </c>
       <c r="N24">
-        <v>9.208644227523459</v>
+        <v>108.37412</v>
       </c>
       <c r="O24">
-        <v>0.08104302276753411</v>
+        <v>0.3002698399771658</v>
       </c>
       <c r="P24">
-        <v>0.08104302276753411</v>
+        <v>0.347634853843273</v>
       </c>
       <c r="Q24">
-        <v>2551.629375071997</v>
+        <v>219.0040593493689</v>
       </c>
       <c r="R24">
-        <v>2551.629375071997</v>
+        <v>1971.03653414432</v>
       </c>
       <c r="S24">
-        <v>0.03061210693731825</v>
+        <v>0.002448326150869381</v>
       </c>
       <c r="T24">
-        <v>0.03061210693731825</v>
+        <v>0.003542919232361079</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>277.090667423713</v>
+        <v>6.062445333333333</v>
       </c>
       <c r="H25">
-        <v>277.090667423713</v>
+        <v>18.187336</v>
       </c>
       <c r="I25">
-        <v>0.3777266184299023</v>
+        <v>0.008153753141026635</v>
       </c>
       <c r="J25">
-        <v>0.3777266184299023</v>
+        <v>0.01019149602864148</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>20.4504432715485</v>
+        <v>0.1185525</v>
       </c>
       <c r="N25">
-        <v>20.4504432715485</v>
+        <v>0.237105</v>
       </c>
       <c r="O25">
-        <v>0.1799793431815528</v>
+        <v>0.0009854125746227868</v>
       </c>
       <c r="P25">
-        <v>0.1799793431815528</v>
+        <v>0.0007605686857758039</v>
       </c>
       <c r="Q25">
-        <v>5666.626975224155</v>
+        <v>0.7187180503799999</v>
       </c>
       <c r="R25">
-        <v>5666.626975224155</v>
+        <v>4.31230830228</v>
       </c>
       <c r="S25">
-        <v>0.06798298868720284</v>
+        <v>8.03481087553769E-06</v>
       </c>
       <c r="T25">
-        <v>0.06798298868720284</v>
+        <v>7.751332740593175E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>277.090667423713</v>
+        <v>285.0064136666667</v>
       </c>
       <c r="H26">
-        <v>277.090667423713</v>
+        <v>855.019241</v>
       </c>
       <c r="I26">
-        <v>0.3777266184299023</v>
+        <v>0.3833225394825256</v>
       </c>
       <c r="J26">
-        <v>0.3777266184299023</v>
+        <v>0.4791204824644771</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.7660431044748</v>
+        <v>49.0568845</v>
       </c>
       <c r="N26">
-        <v>34.7660431044748</v>
+        <v>98.11376899999999</v>
       </c>
       <c r="O26">
-        <v>0.3059674316042899</v>
+        <v>0.4077625596939557</v>
       </c>
       <c r="P26">
-        <v>0.3059674316042899</v>
+        <v>0.3147224240097881</v>
       </c>
       <c r="Q26">
-        <v>9633.346087500497</v>
+        <v>13981.52671700489</v>
       </c>
       <c r="R26">
-        <v>9633.346087500497</v>
+        <v>83889.16030202931</v>
       </c>
       <c r="S26">
-        <v>0.1155720432895709</v>
+        <v>0.156304579887782</v>
       </c>
       <c r="T26">
-        <v>0.1155720432895709</v>
+        <v>0.1507899596339594</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.12105998547929</v>
+        <v>285.0064136666667</v>
       </c>
       <c r="H27">
-        <v>3.12105998547929</v>
+        <v>855.019241</v>
       </c>
       <c r="I27">
-        <v>0.004254590907709088</v>
+        <v>0.3833225394825256</v>
       </c>
       <c r="J27">
-        <v>0.004254590907709088</v>
+        <v>0.4791204824644771</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>48.7361484463294</v>
+        <v>0.5447046666666667</v>
       </c>
       <c r="N27">
-        <v>48.7361484463294</v>
+        <v>1.634114</v>
       </c>
       <c r="O27">
-        <v>0.4289149076182761</v>
+        <v>0.004527604462065725</v>
       </c>
       <c r="P27">
-        <v>0.4289149076182761</v>
+        <v>0.005241795564782868</v>
       </c>
       <c r="Q27">
-        <v>152.1084427622174</v>
+        <v>155.2443235541638</v>
       </c>
       <c r="R27">
-        <v>152.1084427622174</v>
+        <v>1397.198911987474</v>
       </c>
       <c r="S27">
-        <v>0.001824857466133601</v>
+        <v>0.001735532840171448</v>
       </c>
       <c r="T27">
-        <v>0.001824857466133601</v>
+        <v>0.002511451619978924</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.12105998547929</v>
+        <v>285.0064136666667</v>
       </c>
       <c r="H28">
-        <v>3.12105998547929</v>
+        <v>855.019241</v>
       </c>
       <c r="I28">
-        <v>0.004254590907709088</v>
+        <v>0.3833225394825256</v>
       </c>
       <c r="J28">
-        <v>0.004254590907709088</v>
+        <v>0.4791204824644771</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.465334482762813</v>
+        <v>12.26689866666667</v>
       </c>
       <c r="N28">
-        <v>0.465334482762813</v>
+        <v>36.800696</v>
       </c>
       <c r="O28">
-        <v>0.004095294828347118</v>
+        <v>0.101962895744559</v>
       </c>
       <c r="P28">
-        <v>0.004095294828347118</v>
+        <v>0.1180466754912586</v>
       </c>
       <c r="Q28">
-        <v>1.452336834014718</v>
+        <v>3496.144795799082</v>
       </c>
       <c r="R28">
-        <v>1.452336834014718</v>
+        <v>31465.30316219174</v>
       </c>
       <c r="S28">
-        <v>1.74238041410737E-05</v>
+        <v>0.03908467612979636</v>
       </c>
       <c r="T28">
-        <v>1.74238041410737E-05</v>
+        <v>0.05655858011469941</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.12105998547929</v>
+        <v>285.0064136666667</v>
       </c>
       <c r="H29">
-        <v>3.12105998547929</v>
+        <v>855.019241</v>
       </c>
       <c r="I29">
-        <v>0.004254590907709088</v>
+        <v>0.3833225394825256</v>
       </c>
       <c r="J29">
-        <v>0.004254590907709088</v>
+        <v>0.4791204824644771</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.208644227523459</v>
+        <v>22.19572933333333</v>
       </c>
       <c r="N29">
-        <v>9.208644227523459</v>
+        <v>66.587188</v>
       </c>
       <c r="O29">
-        <v>0.08104302276753411</v>
+        <v>0.1844916875476309</v>
       </c>
       <c r="P29">
-        <v>0.08104302276753411</v>
+        <v>0.2135936824051217</v>
       </c>
       <c r="Q29">
-        <v>28.74073101903831</v>
+        <v>6325.925216009367</v>
       </c>
       <c r="R29">
-        <v>28.74073101903831</v>
+        <v>56933.32694408431</v>
       </c>
       <c r="S29">
-        <v>0.0003448049078000113</v>
+        <v>0.07071982218417452</v>
       </c>
       <c r="T29">
-        <v>0.0003448049078000113</v>
+        <v>0.1023371081653062</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,117 +2270,489 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.12105998547929</v>
+        <v>285.0064136666667</v>
       </c>
       <c r="H30">
-        <v>3.12105998547929</v>
+        <v>855.019241</v>
       </c>
       <c r="I30">
-        <v>0.004254590907709088</v>
+        <v>0.3833225394825256</v>
       </c>
       <c r="J30">
-        <v>0.004254590907709088</v>
+        <v>0.4791204824644771</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>20.4504432715485</v>
+        <v>36.12470666666667</v>
       </c>
       <c r="N30">
-        <v>20.4504432715485</v>
+        <v>108.37412</v>
       </c>
       <c r="O30">
-        <v>0.1799793431815528</v>
+        <v>0.3002698399771658</v>
       </c>
       <c r="P30">
-        <v>0.1799793431815528</v>
+        <v>0.347634853843273</v>
       </c>
       <c r="Q30">
-        <v>63.82706018014421</v>
+        <v>10295.77309182699</v>
       </c>
       <c r="R30">
-        <v>63.82706018014421</v>
+        <v>92661.95782644291</v>
       </c>
       <c r="S30">
-        <v>0.0007657384770756883</v>
+        <v>0.1151001975900588</v>
       </c>
       <c r="T30">
-        <v>0.0007657384770756883</v>
+        <v>0.1665589788948569</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>285.0064136666667</v>
+      </c>
+      <c r="H31">
+        <v>855.019241</v>
+      </c>
+      <c r="I31">
+        <v>0.3833225394825256</v>
+      </c>
+      <c r="J31">
+        <v>0.4791204824644771</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.1185525</v>
+      </c>
+      <c r="N31">
+        <v>0.237105</v>
+      </c>
+      <c r="O31">
+        <v>0.0009854125746227868</v>
+      </c>
+      <c r="P31">
+        <v>0.0007605686857758039</v>
+      </c>
+      <c r="Q31">
+        <v>33.7882228562175</v>
+      </c>
+      <c r="R31">
+        <v>202.729337137305</v>
+      </c>
+      <c r="S31">
+        <v>0.0003777308505424204</v>
+      </c>
+      <c r="T31">
+        <v>0.0003644040356762764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.143744</v>
+      </c>
+      <c r="H32">
+        <v>6.287488</v>
+      </c>
+      <c r="I32">
+        <v>0.004228213386707702</v>
+      </c>
+      <c r="J32">
+        <v>0.003523270751809444</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>49.0568845</v>
+      </c>
+      <c r="N32">
+        <v>98.11376899999999</v>
+      </c>
+      <c r="O32">
+        <v>0.4077625596939557</v>
+      </c>
+      <c r="P32">
+        <v>0.3147224240097881</v>
+      </c>
+      <c r="Q32">
+        <v>154.222286305568</v>
+      </c>
+      <c r="R32">
+        <v>616.889145222272</v>
+      </c>
+      <c r="S32">
+        <v>0.001724107113496182</v>
+      </c>
+      <c r="T32">
+        <v>0.001108852311452257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.143744</v>
+      </c>
+      <c r="H33">
+        <v>6.287488</v>
+      </c>
+      <c r="I33">
+        <v>0.004228213386707702</v>
+      </c>
+      <c r="J33">
+        <v>0.003523270751809444</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.5447046666666667</v>
+      </c>
+      <c r="N33">
+        <v>1.634114</v>
+      </c>
+      <c r="O33">
+        <v>0.004527604462065725</v>
+      </c>
+      <c r="P33">
+        <v>0.005241795564782868</v>
+      </c>
+      <c r="Q33">
+        <v>1.712412027605333</v>
+      </c>
+      <c r="R33">
+        <v>10.274472165632</v>
+      </c>
+      <c r="S33">
+        <v>1.914367779622382E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.846826500036394E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.143744</v>
+      </c>
+      <c r="H34">
+        <v>6.287488</v>
+      </c>
+      <c r="I34">
+        <v>0.004228213386707702</v>
+      </c>
+      <c r="J34">
+        <v>0.003523270751809444</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>12.26689866666667</v>
+      </c>
+      <c r="N34">
+        <v>36.800696</v>
+      </c>
+      <c r="O34">
+        <v>0.101962895744559</v>
+      </c>
+      <c r="P34">
+        <v>0.1180466754912586</v>
+      </c>
+      <c r="Q34">
+        <v>38.56398908194134</v>
+      </c>
+      <c r="R34">
+        <v>231.383934491648</v>
+      </c>
+      <c r="S34">
+        <v>0.0004311208807346262</v>
+      </c>
+      <c r="T34">
+        <v>0.0004159103991066923</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.143744</v>
+      </c>
+      <c r="H35">
+        <v>6.287488</v>
+      </c>
+      <c r="I35">
+        <v>0.004228213386707702</v>
+      </c>
+      <c r="J35">
+        <v>0.003523270751809444</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>22.19572933333333</v>
+      </c>
+      <c r="N35">
+        <v>66.587188</v>
+      </c>
+      <c r="O35">
+        <v>0.1844916875476309</v>
+      </c>
+      <c r="P35">
+        <v>0.2135936824051217</v>
+      </c>
+      <c r="Q35">
+        <v>69.77769091729066</v>
+      </c>
+      <c r="R35">
+        <v>418.666145503744</v>
+      </c>
+      <c r="S35">
+        <v>0.0007800702230251876</v>
+      </c>
+      <c r="T35">
+        <v>0.0007525483739892406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>3.12105998547929</v>
-      </c>
-      <c r="H31">
-        <v>3.12105998547929</v>
-      </c>
-      <c r="I31">
-        <v>0.004254590907709088</v>
-      </c>
-      <c r="J31">
-        <v>0.004254590907709088</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>34.7660431044748</v>
-      </c>
-      <c r="N31">
-        <v>34.7660431044748</v>
-      </c>
-      <c r="O31">
-        <v>0.3059674316042899</v>
-      </c>
-      <c r="P31">
-        <v>0.3059674316042899</v>
-      </c>
-      <c r="Q31">
-        <v>108.5069059868245</v>
-      </c>
-      <c r="R31">
-        <v>108.5069059868245</v>
-      </c>
-      <c r="S31">
-        <v>0.001301766252558714</v>
-      </c>
-      <c r="T31">
-        <v>0.001301766252558714</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.143744</v>
+      </c>
+      <c r="H36">
+        <v>6.287488</v>
+      </c>
+      <c r="I36">
+        <v>0.004228213386707702</v>
+      </c>
+      <c r="J36">
+        <v>0.003523270751809444</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>36.12470666666667</v>
+      </c>
+      <c r="N36">
+        <v>108.37412</v>
+      </c>
+      <c r="O36">
+        <v>0.3002698399771658</v>
+      </c>
+      <c r="P36">
+        <v>0.347634853843273</v>
+      </c>
+      <c r="Q36">
+        <v>113.5668298350933</v>
+      </c>
+      <c r="R36">
+        <v>681.40097901056</v>
+      </c>
+      <c r="S36">
+        <v>0.001269604957016032</v>
+      </c>
+      <c r="T36">
+        <v>0.001224811712855555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.143744</v>
+      </c>
+      <c r="H37">
+        <v>6.287488</v>
+      </c>
+      <c r="I37">
+        <v>0.004228213386707702</v>
+      </c>
+      <c r="J37">
+        <v>0.003523270751809444</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <v>0.1185525</v>
+      </c>
+      <c r="N37">
+        <v>0.237105</v>
+      </c>
+      <c r="O37">
+        <v>0.0009854125746227868</v>
+      </c>
+      <c r="P37">
+        <v>0.0007605686857758039</v>
+      </c>
+      <c r="Q37">
+        <v>0.37269871056</v>
+      </c>
+      <c r="R37">
+        <v>1.49079484224</v>
+      </c>
+      <c r="S37">
+        <v>4.16653463945017E-06</v>
+      </c>
+      <c r="T37">
+        <v>2.679689405336037E-06</v>
       </c>
     </row>
   </sheetData>
